--- a/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_GERD.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_GERD.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Presence of skin changes such as sclerodactyly or telangiectasia</t>
+          <t>Progressive dysphagia for solids and liquids</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>These skin manifestations are characteristic of CREST syndrome and are not typically seen in GERD.</t>
+          <t>This is characteristic of Type 2 Achalasia, where both solids and liquids are difficult to swallow due to esophageal motility disorder.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Heartburn or regurgitation after meals</t>
+          <t>Heartburn</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>These symptoms are classic for GERD and not typically associated with CREST syndrome.</t>
+          <t>Heartburn is a classic symptom of GERD, resulting from acid reflux, and is not a feature of CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing) that is progressive and associated with weight loss</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Progressive dysphagia and weight loss are more indicative of Type 2 Achalasia associated with CREST syndrome than GERD.</t>
+          <t>Raynaud's phenomenon is a common feature of CREST syndrome, which is not associated with GERD.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Symptoms improve with antacids or proton pump inhibitors</t>
+          <t>Regurgitation of sour or bitter-tasting acid</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Response to acid-reducing medications is a strong indicator of GERD.</t>
+          <t>Regurgitation is a common symptom of GERD due to acid reflux, not typically seen in CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of Raynaud's phenomenon</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a hallmark of CREST syndrome and is not a feature of GERD.</t>
+          <t>Sclerodactyly is a specific feature of CREST syndrome, indicating skin thickening and tightening, not seen in GERD.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No significant weight loss reported</t>
+          <t>Chest pain that worsens when lying down</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Weight loss is less common in GERD compared to the progressive dysphagia seen in CREST syndrome with Type 2 Achalasia.</t>
+          <t>This type of chest pain is often associated with GERD due to acid reflux, unlike the dysphagia seen in CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Gastrointestinal symptoms that include constipation or diarrhea</t>
+          <t>Telangiectasia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gastrointestinal motility issues are common in CREST syndrome, whereas GERD typically does not present with these symptoms.</t>
+          <t>Telangiectasia is a hallmark of CREST syndrome, involving small dilated blood vessels, absent in GERD.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Symptoms triggered by specific foods or lying down</t>
+          <t>Chronic cough</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Food triggers and positional symptoms are characteristic of GERD.</t>
+          <t>A chronic cough can be a symptom of GERD due to aspiration or irritation from acid reflux, not typical in CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Presence of pulmonary hypertension</t>
+          <t>Calcinosis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension can occur in CREST syndrome and is not associated with GERD.</t>
+          <t>Calcinosis, or calcium deposits in the skin, is a feature of CREST syndrome, not present in GERD.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Chronic cough or throat clearing</t>
+          <t>Hoarseness</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>These respiratory symptoms can be associated with GERD due to aspiration, unlike CREST syndrome.</t>
+          <t>Hoarseness can occur in GERD due to acid affecting the vocal cords, not a feature of CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
@@ -613,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of scleroderma or related connective tissue disease</t>
+          <t>History of scleroderma</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CREST syndrome is a subset of scleroderma, and a past medical history of scleroderma strongly supports the diagnosis.</t>
+          <t>Scleroderma is a key component of CREST syndrome, which is associated with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of frequent heartburn or acid reflux</t>
+          <t>History of chronic heartburn</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>GERD is characterized by frequent heartburn, which is not a feature of CREST syndrome.</t>
+          <t>Chronic heartburn is a classic symptom of GERD.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Previous diagnosis of esophageal motility disorder</t>
+          <t>History of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Type 2 Achalasia is characterized by esophageal motility issues, which would be more common in CREST syndrome patients.</t>
+          <t>Raynaud's phenomenon is commonly associated with CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Use of proton pump inhibitors (PPIs)</t>
+          <t>Use of proton pump inhibitors</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PPIs are commonly prescribed for GERD, indicating a higher likelihood of this diagnosis.</t>
+          <t>Proton pump inhibitors are commonly used to treat GERD.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of Raynaud's phenomenon</t>
+          <t>History of telangiectasia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a common feature of CREST syndrome, distinguishing it from GERD.</t>
+          <t>Telangiectasia is a characteristic feature of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>History of esophagitis</t>
+          <t>History of regurgitation</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Esophagitis is a common complication of GERD, which would not typically be present in CREST syndrome.</t>
+          <t>Regurgitation is a common symptom in GERD patients.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Previous surgical intervention for achalasia</t>
+          <t>History of calcinosis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Surgical history indicating treatment for achalasia supports the diagnosis of Type 2 Achalasia associated with CREST syndrome.</t>
+          <t>Calcinosis is part of the CREST syndrome spectrum.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Previous diagnosis of peptic ulcer disease</t>
+          <t>History of esophagitis</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Peptic ulcer disease is more commonly associated with GERD than with CREST syndrome.</t>
+          <t>Esophagitis is often a result of chronic GERD.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Use of medications for autoimmune conditions</t>
+          <t>Use of medications for scleroderma</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Medications for autoimmune diseases are more likely in patients with CREST syndrome than in those with GERD.</t>
+          <t>Medications specifically for scleroderma suggest a diagnosis of CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>History of lifestyle factors contributing to GERD (e.g., obesity, smoking)</t>
+          <t>History of Barrett's esophagus</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Lifestyle factors are significant contributors to GERD, distinguishing it from CREST syndrome.</t>
+          <t>Barrett's esophagus is a complication of long-standing GERD.</t>
         </is>
       </c>
     </row>
@@ -769,105 +769,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CREST syndrome is associated with autoimmune conditions, suggesting a genetic predisposition.</t>
+          <t>Autoimmune diseases, including CREST syndrome, often have a genetic component and may run in families.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of obesity or overweight</t>
+          <t>History of smoking</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Obesity is a significant risk factor for GERD, making it more likely than CREST syndrome.</t>
+          <t>Smoking is a well-known risk factor for GERD, increasing the likelihood of this diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of sclerodactyly or skin changes</t>
+          <t>History of Raynaud's phenomenon in family</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Skin changes are characteristic of CREST syndrome, indicating a higher likelihood of this diagnosis.</t>
+          <t>Raynaud's phenomenon is commonly associated with CREST syndrome and may indicate a familial predisposition.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Frequent consumption of fatty or spicy foods</t>
+          <t>High alcohol consumption</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dietary habits are strongly associated with GERD symptoms, unlike CREST syndrome.</t>
+          <t>Alcohol use is associated with an increased risk of GERD due to its effect on the lower esophageal sphincter.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Occupational exposure to silica or other environmental toxins</t>
+          <t>Family history of scleroderma</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Certain exposures are linked to autoimmune diseases, including CREST syndrome.</t>
+          <t>Scleroderma is a key component of CREST syndrome and a family history increases the likelihood of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>History of smoking</t>
+          <t>Obesity in family</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Smoking is a known risk factor for GERD, providing a clear distinction from CREST syndrome.</t>
+          <t>Obesity is a significant risk factor for GERD and may suggest a familial predisposition to GERD.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Presence of Raynaud's phenomenon</t>
+          <t>Family history of esophageal motility disorders</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Raynaud's is a common symptom in CREST syndrome, distinguishing it from GERD.</t>
+          <t>Type 2 Achalasia is an esophageal motility disorder, and a family history may suggest a genetic predisposition.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Family history of GERD or related gastrointestinal disorders</t>
+          <t>Diet high in fatty foods</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A familial tendency towards GERD can indicate a higher likelihood of this diagnosis.</t>
+          <t>A diet rich in fatty foods can exacerbate GERD symptoms, making GERD more likely.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of esophageal motility disorders in family</t>
+          <t>Limited exposure to GERD risk factors</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Family history of esophageal issues may suggest a genetic link to achalasia, which is part of CREST syndrome.</t>
+          <t>Absence of GERD risk factors such as smoking or alcohol use may suggest an alternative diagnosis like CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sedentary lifestyle</t>
+          <t>Family history of GERD</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A lack of physical activity is associated with GERD, differentiating it from CREST syndrome.</t>
+          <t>A family history of GERD suggests a genetic predisposition to the condition.</t>
         </is>
       </c>
     </row>
@@ -915,22 +915,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Skin changes such as sclerodactyly</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a hallmark of CREST syndrome and is not typically seen in GERD.</t>
+          <t>Thickening and tightening of the skin on the fingers is characteristic of CREST syndrome.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Heartburn</t>
+          <t>Epigastric tenderness</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Heartburn is a classic symptom of GERD and not typically associated with CREST syndrome.</t>
+          <t>Tenderness in the upper abdomen is more commonly associated with GERD.</t>
         </is>
       </c>
     </row>
@@ -942,83 +942,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Telangiectasia is a common finding in CREST syndrome and is not associated with GERD.</t>
+          <t>Visible small blood vessels on the skin are a common feature of CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Regurgitation</t>
+          <t>Normal skin examination</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Regurgitation is a common symptom in GERD, distinguishing it from CREST syndrome.</t>
+          <t>Absence of skin changes like sclerodactyly or telangiectasia suggests GERD over CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing) with a dilated esophagus</t>
+          <t>Calcinosis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dysphagia due to esophageal motility issues is more characteristic of Type 2 Achalasia in CREST syndrome than GERD.</t>
+          <t>Calcium deposits in the skin are indicative of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal skin examination</t>
+          <t>Absence of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A normal skin examination suggests the absence of sclerodactyly or telangiectasia, favoring GERD over CREST syndrome.</t>
+          <t>Lack of Raynaud's phenomenon is more consistent with GERD.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension can occur in CREST syndrome and is not a feature of GERD.</t>
+          <t>Episodes of reduced blood flow to the fingers, causing color changes, are typical in CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No signs of esophageal dilation</t>
+          <t>Normal nailfold capillaries</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of esophageal dilation is more consistent with GERD than with Type 2 Achalasia.</t>
+          <t>Normal capillary patterns at the nailfold are more typical in GERD.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Reduced peristalsis on physical examination</t>
+          <t>Digital ulcers</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Reduced peristalsis is indicative of esophageal motility disorders like Type 2 Achalasia, which is associated with CREST syndrome.</t>
+          <t>Ulcers on the fingertips are more common in CREST syndrome due to vascular involvement.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal respiratory examination</t>
+          <t>Absence of digital ulcers</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A normal respiratory examination suggests no pulmonary complications, which are more common in CREST syndrome.</t>
+          <t>Lack of digital ulcers is more indicative of GERD.</t>
         </is>
       </c>
     </row>
@@ -1066,110 +1066,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Esophageal manometry showing elevated resting lower esophageal sphincter (LES) pressure</t>
+          <t>Esophageal manometry showing aperistalsis with elevated lower esophageal sphincter (LES) pressure</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Elevated LES pressure is characteristic of Type 2 Achalasia, which is associated with CREST syndrome.</t>
+          <t>This finding is characteristic of Type 2 Achalasia, which is associated with CREST syndrome.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Esophageal pH monitoring showing acid reflux</t>
+          <t>24-hour pH monitoring showing acid reflux</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Acid reflux is a hallmark of GERD and is not typically present in achalasia.</t>
+          <t>Acid reflux is a hallmark of GERD.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barium swallow study showing dilated esophagus with stasis</t>
+          <t>Antinuclear antibody (ANA) positivity with centromere pattern</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dilation and stasis of the esophagus are indicative of achalasia, which is more common in CREST syndrome.</t>
+          <t>ANA with centromere pattern is commonly associated with CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Endoscopy revealing esophagitis</t>
+          <t>Endoscopy showing erosive esophagitis</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Esophagitis is commonly seen in GERD due to acid exposure, unlike in achalasia.</t>
+          <t>Erosive esophagitis is commonly seen in GERD.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Presence of anti-centromere antibodies</t>
+          <t>Barium swallow showing bird-beak appearance</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anti-centromere antibodies are often found in CREST syndrome and are not typically associated with GERD.</t>
+          <t>The bird-beak appearance on barium swallow is indicative of achalasia.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Barium swallow study showing normal peristalsis</t>
+          <t>Esophageal manometry showing normal peristalsis</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal peristalsis is indicative of GERD, whereas achalasia shows impaired peristalsis.</t>
+          <t>Normal peristalsis is more consistent with GERD than achalasia.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Endoscopic findings of esophageal dilation and decreased peristalsis</t>
+          <t>High-resolution manometry showing panesophageal pressurization</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>These findings are consistent with achalasia, which is more prevalent in patients with CREST syndrome.</t>
+          <t>Panesophageal pressurization is a feature of Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Response to proton pump inhibitors (PPIs)</t>
+          <t>Barium swallow showing reflux of barium</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Improvement of symptoms with PPIs is typical for GERD but not for achalasia.</t>
+          <t>Reflux of barium during a swallow study is indicative of GERD.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Imaging showing esophageal wall thickening</t>
+          <t>Esophageal dilation on imaging</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Esophageal wall thickening can be seen in achalasia and is more likely in CREST syndrome than in GERD.</t>
+          <t>Esophageal dilation is more common in achalasia than in GERD.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Esophageal biopsy showing no dysplasia</t>
+          <t>Negative ANA test</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of dysplasia supports GERD, as achalasia is not characterized by this finding.</t>
+          <t>A negative ANA test is more consistent with GERD, as CREST syndrome often has a positive ANA.</t>
         </is>
       </c>
     </row>
